--- a/data/trans_orig/P37C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9476</v>
+        <v>8846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005266483225322824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001210916439266091</v>
+        <v>0.001198627253551213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01726779275275929</v>
+        <v>0.01612046208850683</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4465</v>
+        <v>4654</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002660498041206316</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009142274149428815</v>
+        <v>0.009528087296604981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>4189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10720</v>
+        <v>10412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004039310056677772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001391693939008197</v>
+        <v>0.001376626212755345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01033605253303327</v>
+        <v>0.01003883964393945</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13250</v>
+        <v>13189</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01091485938713178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004444788391175663</v>
+        <v>0.004436084439904586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02414569332737951</v>
+        <v>0.02403333766376837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7610</v>
+        <v>6866</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.00515773359755594</v>
+        <v>0.005157733597555939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00132499195083215</v>
+        <v>0.001328424506195619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01558076561925102</v>
+        <v>0.0140569490733648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>8509</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3911</v>
+        <v>4021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15945</v>
+        <v>16707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008203796277278705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003770786896436089</v>
+        <v>0.003877282350584693</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01537395295512213</v>
+        <v>0.01610864061973964</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>14158</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7981</v>
+        <v>8093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23658</v>
+        <v>22349</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02579937827852985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01454391089036676</v>
+        <v>0.01474774379738011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0431108748122165</v>
+        <v>0.04072662855018364</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,16 +907,16 @@
         <v>3371</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12930</v>
+        <v>12679</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.01374186038830109</v>
+        <v>0.01374186038830108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006901239993369195</v>
+        <v>0.006901551025846778</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02647341694812773</v>
+        <v>0.02595945165686477</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -925,19 +925,19 @@
         <v>20869</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13120</v>
+        <v>12980</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31274</v>
+        <v>31833</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02012142487897402</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01264932173744065</v>
+        <v>0.0125147065165934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03015266278773255</v>
+        <v>0.03069166795237534</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>96230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79100</v>
+        <v>78570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114879</v>
+        <v>116743</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1753572803253664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1441427949162837</v>
+        <v>0.143176694743345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2093409231731622</v>
+        <v>0.2127380690121571</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -975,19 +975,19 @@
         <v>71623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59197</v>
+        <v>59307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85231</v>
+        <v>84840</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.146644369334319</v>
+        <v>0.1466443693343189</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.121203088822323</v>
+        <v>0.1214276656814558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1745062898253498</v>
+        <v>0.1737059735432692</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>205</v>
@@ -996,19 +996,19 @@
         <v>167852</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145348</v>
+        <v>144395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191181</v>
+        <v>189454</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1618362080734331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1401390972513446</v>
+        <v>0.1392197235262975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1843286317735337</v>
+        <v>0.1826642575488007</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>429496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>408320</v>
+        <v>406488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447346</v>
+        <v>448308</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7826619987836493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7440734436837156</v>
+        <v>0.7407358693691686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8151897672203354</v>
+        <v>0.8169425584289912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>561</v>
@@ -1046,19 +1046,19 @@
         <v>406258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>391956</v>
+        <v>391363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419828</v>
+        <v>419138</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8317955386386178</v>
+        <v>0.8317955386386177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8025125727300088</v>
+        <v>0.8012982199202544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8595800996447606</v>
+        <v>0.85816674337545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>995</v>
@@ -1067,19 +1067,19 @@
         <v>835753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>811229</v>
+        <v>811153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>860006</v>
+        <v>860874</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8057992607136366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7821539726096076</v>
+        <v>0.7820802786245099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8291828461318033</v>
+        <v>0.8300198208218644</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8142</v>
+        <v>8435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003141508897247625</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01692417659110869</v>
+        <v>0.01753228229125979</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8888</v>
+        <v>10550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004245651148591549</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02103034180545188</v>
+        <v>0.02496506631086252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12009</v>
+        <v>10842</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003657842669203186</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01328870229762925</v>
+        <v>0.01199671234190179</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7325</v>
+        <v>8453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004322540587632867</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01522563917440389</v>
+        <v>0.01756991828650226</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>3709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1478</v>
+        <v>1521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8037</v>
+        <v>7789</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.008776783115898273</v>
+        <v>0.008776783115898275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003496734977708449</v>
+        <v>0.003599037527518229</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01901791369541265</v>
+        <v>0.018431882042285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>5789</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11199</v>
+        <v>12175</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006405493072265012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002797469900059951</v>
+        <v>0.002795321630175033</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01239217850012359</v>
+        <v>0.01347167841347495</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>18278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10767</v>
+        <v>11743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28336</v>
+        <v>28933</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03799176575397858</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02237997757805256</v>
+        <v>0.02440863623385933</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05889792421168669</v>
+        <v>0.06013869873313226</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1334,19 +1334,19 @@
         <v>13768</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8390</v>
+        <v>7852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22484</v>
+        <v>23550</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03257771174470341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01985254338851448</v>
+        <v>0.01858022536452765</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05320274186279159</v>
+        <v>0.0557250804454033</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -1355,19 +1355,19 @@
         <v>32046</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21787</v>
+        <v>22105</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44437</v>
+        <v>45000</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03545997338322414</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02410818664762534</v>
+        <v>0.02446060175340025</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04917130786281002</v>
+        <v>0.04979397607990473</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>88795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71875</v>
+        <v>71496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106079</v>
+        <v>106415</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1845629687906789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.149394379988619</v>
+        <v>0.1486070109749075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2204891754300133</v>
+        <v>0.2211874512412171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>120</v>
@@ -1405,19 +1405,19 @@
         <v>84844</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69885</v>
+        <v>71515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98586</v>
+        <v>100324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2007638942787966</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1653659629117799</v>
+        <v>0.1692220951156967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2332806777799236</v>
+        <v>0.2373921643115821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -1426,19 +1426,19 @@
         <v>173639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151869</v>
+        <v>151671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197064</v>
+        <v>198874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.192139062320538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1680495630779662</v>
+        <v>0.1678297798866944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.218059488959289</v>
+        <v>0.2200621769683209</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>370445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352587</v>
+        <v>351789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>389167</v>
+        <v>389165</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7699812159704621</v>
+        <v>0.769981215970462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7328630080811994</v>
+        <v>0.7312044789404818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8088966601250374</v>
+        <v>0.8088917383189914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -1476,19 +1476,19 @@
         <v>318493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>303326</v>
+        <v>303052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334098</v>
+        <v>335586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7536359597120103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7177487604565929</v>
+        <v>0.7170991601308482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7905630247236995</v>
+        <v>0.7940834778391592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>808</v>
@@ -1497,19 +1497,19 @@
         <v>688937</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664148</v>
+        <v>663691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>713864</v>
+        <v>712300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7623376285547696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7349074941346682</v>
+        <v>0.7344011159010945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7899202896943733</v>
+        <v>0.7881895282612107</v>
       </c>
     </row>
     <row r="15">
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6205</v>
+        <v>6128</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.00399888955179175</v>
+        <v>0.003998889551791751</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01324361674453945</v>
+        <v>0.01307826679053277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1622,19 +1622,19 @@
         <v>3578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1145</v>
+        <v>1209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10297</v>
+        <v>10593</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01914499601284077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006127940695410787</v>
+        <v>0.006466926170509562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05509146309253895</v>
+        <v>0.0566762594577299</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1643,19 +1643,19 @@
         <v>5452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2252</v>
+        <v>1990</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11805</v>
+        <v>12299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008317950764241126</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003435480691034807</v>
+        <v>0.003035566799800634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01801059735673573</v>
+        <v>0.01876452207835773</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4208</v>
+        <v>4228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19346</v>
+        <v>18725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02059947123045263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008980438056936423</v>
+        <v>0.009023866592221796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04129141915051097</v>
+        <v>0.03996580291926852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3345</v>
+        <v>3254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003454145280370048</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01789420757397663</v>
+        <v>0.01741000773219367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1714,19 +1714,19 @@
         <v>10297</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4841</v>
+        <v>5178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19125</v>
+        <v>20434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01571031291928923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00738666326318782</v>
+        <v>0.007900816556012411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02917935494902626</v>
+        <v>0.03117536087076403</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>23194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15368</v>
+        <v>14412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34858</v>
+        <v>33192</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04950357281586992</v>
+        <v>0.04950357281586994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03280131530454219</v>
+        <v>0.03075891691587037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07439731066267695</v>
+        <v>0.07084299060518691</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>3548</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1203</v>
+        <v>1258</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6944</v>
+        <v>7857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01898258113607495</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006435493367642695</v>
+        <v>0.006728876727033125</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03715149660427868</v>
+        <v>0.04203898839379402</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1785,19 +1785,19 @@
         <v>26742</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17736</v>
+        <v>17592</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37303</v>
+        <v>38130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04080021187827867</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02705972429723154</v>
+        <v>0.02684076027752677</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05691362961150532</v>
+        <v>0.05817503608957871</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>102449</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84500</v>
+        <v>85146</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122613</v>
+        <v>121900</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2186582487015941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1803497204234711</v>
+        <v>0.1817288686153304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2616949980140314</v>
+        <v>0.2601734037892628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -1835,19 +1835,19 @@
         <v>39947</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32146</v>
+        <v>32032</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50076</v>
+        <v>50467</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2137306359193539</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1719902866164616</v>
+        <v>0.171383731794836</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2679205591982473</v>
+        <v>0.2700147320049738</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>174</v>
@@ -1856,19 +1856,19 @@
         <v>142396</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123245</v>
+        <v>121229</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162595</v>
+        <v>162182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2172530914559035</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1880349537979999</v>
+        <v>0.1849585947582222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2480707440492996</v>
+        <v>0.2474399956765578</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>331365</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308127</v>
+        <v>310563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>349792</v>
+        <v>352274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7072398177002917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6576410342317802</v>
+        <v>0.6628409420664449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7465676263112381</v>
+        <v>0.7518660181264737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1906,19 +1906,19 @@
         <v>139186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129622</v>
+        <v>129012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148171</v>
+        <v>148319</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7446876416513604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6935171489958478</v>
+        <v>0.6902569797175224</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7927622798812457</v>
+        <v>0.7935527086948675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>555</v>
@@ -1927,19 +1927,19 @@
         <v>470551</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>449680</v>
+        <v>447885</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>492695</v>
+        <v>493831</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7179184329822873</v>
+        <v>0.7179184329822874</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6860755875559651</v>
+        <v>0.6833373564581613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7517029362567663</v>
+        <v>0.7534369531671459</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4993</v>
+        <v>4165</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0007362457553260274</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004441581664629738</v>
+        <v>0.003704893399101379</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4535</v>
+        <v>4492</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001706992829452322</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005283121407651068</v>
+        <v>0.005232749887767497</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2073,19 +2073,19 @@
         <v>2293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6857</v>
+        <v>6220</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001156554171641911</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0003556510689441526</v>
+        <v>0.0003559727354236549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003458792507312815</v>
+        <v>0.003137661842137242</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>6287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2538</v>
+        <v>2632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11896</v>
+        <v>12291</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.005592798116113796</v>
+        <v>0.005592798116113795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002257652072896742</v>
+        <v>0.002341577225272477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01058203367192322</v>
+        <v>0.01093375012109265</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2123,19 +2123,19 @@
         <v>3619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1254</v>
+        <v>679</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9734</v>
+        <v>9997</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004216043653046485</v>
+        <v>0.004216043653046486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00146043935302959</v>
+        <v>0.000791160188721186</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01133993675309445</v>
+        <v>0.01164611632205868</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -2144,19 +2144,19 @@
         <v>9906</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4890</v>
+        <v>5094</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18453</v>
+        <v>17682</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004996698984371924</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002466442340335049</v>
+        <v>0.0025694731778862</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009308051534515277</v>
+        <v>0.008918853547365551</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>37550</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25570</v>
+        <v>26176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52463</v>
+        <v>54589</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03340351507310809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02274620647237837</v>
+        <v>0.02328560497001312</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04666963569120918</v>
+        <v>0.04856025674474154</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2194,19 +2194,19 @@
         <v>23851</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16065</v>
+        <v>16816</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32444</v>
+        <v>33455</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02778596386321179</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01871577639213932</v>
+        <v>0.0195899157365829</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03779702579711559</v>
+        <v>0.0389749986821263</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>67</v>
@@ -2215,19 +2215,19 @@
         <v>61401</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48229</v>
+        <v>46908</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>81871</v>
+        <v>79238</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03097126045649751</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02432688430208265</v>
+        <v>0.02366067965782432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04129628260846751</v>
+        <v>0.03996811277335374</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>275859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245359</v>
+        <v>244412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306514</v>
+        <v>305536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2453950796728468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.218262985998258</v>
+        <v>0.2174205470489037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2726649142362521</v>
+        <v>0.2717949884901116</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>254</v>
@@ -2265,19 +2265,19 @@
         <v>161417</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141985</v>
+        <v>142276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>179156</v>
+        <v>181383</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1880474363508292</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1654098123468493</v>
+        <v>0.1657487338578268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2087138180029084</v>
+        <v>0.2113079684762099</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>524</v>
@@ -2286,19 +2286,19 @@
         <v>437276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>399294</v>
+        <v>397766</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>473360</v>
+        <v>474869</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2205650309541117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2014068262623243</v>
+        <v>0.2006361984194324</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.238766077651673</v>
+        <v>0.2395270704594426</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>803619</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772555</v>
+        <v>770958</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>838019</v>
+        <v>835777</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7148723613826055</v>
+        <v>0.7148723613826053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6872389996362182</v>
+        <v>0.6858182041130103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7454738136810819</v>
+        <v>0.7434789636912529</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>932</v>
@@ -2336,19 +2336,19 @@
         <v>668031</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>647558</v>
+        <v>646611</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>687803</v>
+        <v>688033</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7782435633034601</v>
+        <v>0.7782435633034603</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7543924512084914</v>
+        <v>0.7532892687948961</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8012779932841453</v>
+        <v>0.8015456729229351</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1730</v>
@@ -2357,19 +2357,19 @@
         <v>1471650</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1434606</v>
+        <v>1429988</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1512735</v>
+        <v>1512887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7423104554333769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7236253404433417</v>
+        <v>0.7212960589282934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7630343681156865</v>
+        <v>0.7631109176035656</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5886</v>
+        <v>6844</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002128192656564735</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01058760188875153</v>
+        <v>0.01231086465347505</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2482,19 +2482,19 @@
         <v>2030</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>497</v>
+        <v>635</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4859</v>
+        <v>5058</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002454616897396828</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0006011388607311946</v>
+        <v>0.0007673826250656186</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005874688628663667</v>
+        <v>0.006115762394286104</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2503,19 +2503,19 @@
         <v>3213</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1173</v>
+        <v>944</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8342</v>
+        <v>8054</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.00232340573379926</v>
+        <v>0.002323405733799259</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0008479096348190129</v>
+        <v>0.0006825645781169947</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006031623051563327</v>
+        <v>0.005823358403494541</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>5103</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2003</v>
+        <v>2090</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10320</v>
+        <v>11466</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.009178416347483905</v>
+        <v>0.009178416347483906</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003603273454427592</v>
+        <v>0.003759188415456796</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01856399600254631</v>
+        <v>0.02062478261849754</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2553,19 +2553,19 @@
         <v>4247</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1700</v>
+        <v>1751</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9421</v>
+        <v>9727</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005135400829851392</v>
+        <v>0.005135400829851391</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002055732259110703</v>
+        <v>0.002116912086233364</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0113903601608536</v>
+        <v>0.01176087765194763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2574,19 +2574,19 @@
         <v>9350</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4872</v>
+        <v>4922</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16091</v>
+        <v>15409</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.006760552102806221</v>
+        <v>0.00676055210280622</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003522638094330567</v>
+        <v>0.003559047212483515</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01163468726655855</v>
+        <v>0.01114134165982716</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>46354</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33996</v>
+        <v>33980</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62200</v>
+        <v>63016</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08338164251692488</v>
+        <v>0.0833816425169249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06115273083507562</v>
+        <v>0.06112265319895625</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1118863131725976</v>
+        <v>0.113353247326077</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>41</v>
@@ -2624,19 +2624,19 @@
         <v>27004</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19334</v>
+        <v>19285</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35836</v>
+        <v>36188</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03264930728869168</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02337590221028905</v>
+        <v>0.02331679671785175</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04332823221856692</v>
+        <v>0.04375376401916905</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>83</v>
@@ -2645,19 +2645,19 @@
         <v>73358</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59367</v>
+        <v>58022</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>93580</v>
+        <v>91123</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05304193719984611</v>
+        <v>0.05304193719984612</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04292602675823728</v>
+        <v>0.04195340311353413</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06766411944523451</v>
+        <v>0.065887224932312</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>125453</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>105417</v>
+        <v>105377</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147020</v>
+        <v>148742</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2256650637452399</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1896240700383599</v>
+        <v>0.1895535419489336</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2644613447971473</v>
+        <v>0.2675585919869404</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>279</v>
@@ -2695,19 +2695,19 @@
         <v>174733</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>155464</v>
+        <v>157079</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>194568</v>
+        <v>193717</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2112617208098071</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1879646877861276</v>
+        <v>0.1899179909507</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2352434168683215</v>
+        <v>0.2342148737027769</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>399</v>
@@ -2716,19 +2716,19 @@
         <v>300185</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>271214</v>
+        <v>269186</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>328801</v>
+        <v>330801</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2170513624780712</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1961037830011696</v>
+        <v>0.1946371232309017</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2377422835961834</v>
+        <v>0.2391886545671724</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>377832</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>354622</v>
+        <v>351443</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>401946</v>
+        <v>399306</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6796466847337864</v>
+        <v>0.6796466847337866</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6378959044205513</v>
+        <v>0.6321787446780579</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7230236771873479</v>
+        <v>0.7182753214241594</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>954</v>
@@ -2766,19 +2766,19 @@
         <v>619077</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>599044</v>
+        <v>598987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>639914</v>
+        <v>639516</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7484989541742531</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7242786380538772</v>
+        <v>0.7242098807844816</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7736924159675962</v>
+        <v>0.7732105734074881</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1325</v>
@@ -2787,19 +2787,19 @@
         <v>996909</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>964441</v>
+        <v>962577</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1028820</v>
+        <v>1030077</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7208227424854774</v>
+        <v>0.7208227424854773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6973468487780717</v>
+        <v>0.6959989763913372</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7438964044198161</v>
+        <v>0.7448056836210659</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10845</v>
+        <v>10314</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01395151946667849</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04676886544166142</v>
+        <v>0.04448020650079203</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3957</v>
+        <v>4362</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001466860839793255</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.004718443836731773</v>
+        <v>0.005202129502996579</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2933,19 +2933,19 @@
         <v>4465</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1078</v>
+        <v>1188</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11573</v>
+        <v>11474</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004171403975653402</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001007117915784648</v>
+        <v>0.001110289437757054</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01081171860090066</v>
+        <v>0.01071972095541034</v>
       </c>
     </row>
     <row r="35">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3746</v>
+        <v>3597</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00306475709009746</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01615380690369621</v>
+        <v>0.01551014790831779</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2983,19 +2983,19 @@
         <v>2573</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>619</v>
+        <v>953</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7023</v>
+        <v>6665</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.003069064142993988</v>
+        <v>0.003069064142993987</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0007380517559941915</v>
+        <v>0.001136961477591728</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.008375785925901571</v>
+        <v>0.007948713252139568</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -3004,19 +3004,19 @@
         <v>3284</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1049</v>
+        <v>1080</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7865</v>
+        <v>7774</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003068131109044464</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0009801040720980303</v>
+        <v>0.0010088833739557</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007347512087957199</v>
+        <v>0.007262473844750527</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>19192</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8640</v>
+        <v>8862</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37307</v>
+        <v>34469</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08276692274479901</v>
+        <v>0.08276692274479902</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.037259431618934</v>
+        <v>0.03821690018638265</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1608891692390359</v>
+        <v>0.148647471149007</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -3054,19 +3054,19 @@
         <v>27533</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18365</v>
+        <v>17849</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>42059</v>
+        <v>42287</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03283514627875615</v>
+        <v>0.03283514627875614</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02190118731542894</v>
+        <v>0.02128583324229063</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05015778630111428</v>
+        <v>0.05043072799229561</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>41</v>
@@ -3075,19 +3075,19 @@
         <v>46725</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>31733</v>
+        <v>32155</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68982</v>
+        <v>66830</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0436518331693156</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02964578741105107</v>
+        <v>0.03003967423029201</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06444474887466808</v>
+        <v>0.0624344531589796</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>63361</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>44218</v>
+        <v>44717</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>86421</v>
+        <v>86003</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2732482258996843</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1906921565449855</v>
+        <v>0.1928450739770538</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3726974853525453</v>
+        <v>0.3708927088529784</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>273</v>
@@ -3125,19 +3125,19 @@
         <v>185550</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>164506</v>
+        <v>162199</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>209355</v>
+        <v>208529</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.221281188064855</v>
+        <v>0.2212811880648551</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1961852120430131</v>
+        <v>0.1934337173596515</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2496708228241509</v>
+        <v>0.2486857253803934</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>303</v>
@@ -3146,19 +3146,19 @@
         <v>248911</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>218617</v>
+        <v>219047</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>280075</v>
+        <v>281566</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2325387722461725</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2042370781041921</v>
+        <v>0.2046390850778739</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2616531667526201</v>
+        <v>0.2630458757671321</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>145382</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>120704</v>
+        <v>121364</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>168496</v>
+        <v>168228</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6269685747987409</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5205428226323007</v>
+        <v>0.5233875611963709</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7266494903548406</v>
+        <v>0.7254945744431675</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>839</v>
@@ -3196,19 +3196,19 @@
         <v>621638</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>594947</v>
+        <v>597194</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>642704</v>
+        <v>647937</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.7413477406736015</v>
+        <v>0.7413477406736018</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7095171275593714</v>
+        <v>0.7121961830778765</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7664702040051037</v>
+        <v>0.7727112293921591</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>907</v>
@@ -3217,19 +3217,19 @@
         <v>767021</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>732874</v>
+        <v>732992</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>800232</v>
+        <v>798686</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7165698594998141</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6846692876632443</v>
+        <v>0.6847794219361365</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7475963034822329</v>
+        <v>0.7461525451227721</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>11521</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5973</v>
+        <v>5596</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>21933</v>
+        <v>20512</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.003378220310593699</v>
+        <v>0.003378220310593698</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001751293192463105</v>
+        <v>0.00164090290538937</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006431207272754918</v>
+        <v>0.006014648421176466</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -3342,19 +3342,19 @@
         <v>11397</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6157</v>
+        <v>6015</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20629</v>
+        <v>18705</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003146780590011106</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001699880940581826</v>
+        <v>0.00166084830413727</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.005695685329744542</v>
+        <v>0.005164347287569118</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>25</v>
@@ -3363,19 +3363,19 @@
         <v>22918</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>14353</v>
+        <v>14867</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33915</v>
+        <v>34439</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.00325901897380833</v>
+        <v>0.003259018973808331</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002041064083185312</v>
+        <v>0.002114177334177579</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004822812604216502</v>
+        <v>0.004897332762280468</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>29821</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20188</v>
+        <v>20661</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42709</v>
+        <v>41501</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.008744279995763257</v>
+        <v>0.008744279995763255</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005919484866160962</v>
+        <v>0.006058381425631354</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01252340831463165</v>
+        <v>0.01216915175226893</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3413,19 +3413,19 @@
         <v>17314</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11109</v>
+        <v>11380</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26049</v>
+        <v>26877</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.004780262714588349</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003067274999836172</v>
+        <v>0.003141948587042983</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.007191931427389184</v>
+        <v>0.00742059388597949</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>55</v>
@@ -3434,19 +3434,19 @@
         <v>47135</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>35483</v>
+        <v>35462</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>62560</v>
+        <v>61634</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.006702641863091363</v>
+        <v>0.006702641863091364</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005045693559024613</v>
+        <v>0.005042790435436046</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008896114139746114</v>
+        <v>0.008764409488413385</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>158726</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>132682</v>
+        <v>130210</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>189560</v>
+        <v>188179</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04654246890601554</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03890558215227516</v>
+        <v>0.03818088924126174</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05558361491110149</v>
+        <v>0.055178647755954</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>139</v>
@@ -3484,19 +3484,19 @@
         <v>102415</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>85398</v>
+        <v>86047</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>121474</v>
+        <v>122377</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02827648782953555</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02357800931415002</v>
+        <v>0.02375735393265965</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03353860749321561</v>
+        <v>0.03378785806281661</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>279</v>
@@ -3505,19 +3505,19 @@
         <v>261141</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>229545</v>
+        <v>226456</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>298250</v>
+        <v>301072</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.03713470883556714</v>
+        <v>0.03713470883556715</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03264163400107706</v>
+        <v>0.03220234821390464</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04241164672499769</v>
+        <v>0.04281292911343049</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>752146</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>700845</v>
+        <v>699951</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>805594</v>
+        <v>806727</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.220547844975403</v>
+        <v>0.2205478449754029</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2055052621586367</v>
+        <v>0.2052429521858515</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2362202212071658</v>
+        <v>0.236552223496734</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1102</v>
@@ -3555,19 +3555,19 @@
         <v>718113</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>676446</v>
+        <v>675128</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>761099</v>
+        <v>760037</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.198268618945064</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.186764326712203</v>
+        <v>0.18640038096433</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2101367154754977</v>
+        <v>0.2098435309265378</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1820</v>
@@ -3576,19 +3576,19 @@
         <v>1470259</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1399966</v>
+        <v>1397753</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1540465</v>
+        <v>1535954</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2090730924192097</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1990773110897444</v>
+        <v>0.19876254240317</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2190564194347529</v>
+        <v>0.2184148912464605</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>2458139</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2396470</v>
+        <v>2405067</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2516256</v>
+        <v>2519728</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7207871858122246</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7027043837552446</v>
+        <v>0.7052252606579413</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7378285862245975</v>
+        <v>0.7388466902847628</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3943</v>
@@ -3626,19 +3626,19 @@
         <v>2772682</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2727564</v>
+        <v>2725242</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2821170</v>
+        <v>2820182</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7655278499208009</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7530707579383598</v>
+        <v>0.7524298508846351</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7789151542729089</v>
+        <v>0.7786424806213007</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6320</v>
@@ -3647,19 +3647,19 @@
         <v>5230821</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5151349</v>
+        <v>5160341</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5304115</v>
+        <v>5306586</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7438305379083234</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7325295168898774</v>
+        <v>0.7338082297600064</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7542531383196452</v>
+        <v>0.7546043869186304</v>
       </c>
     </row>
     <row r="45">
